--- a/documentation/assets/documents/tables.xlsx
+++ b/documentation/assets/documents/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enaielei\Documents\GitHub\3-2-2-itec-200a-capstone\documentation\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0ABEC-960E-4F12-91A4-1791E0DD4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE62C60-1A90-4086-854F-D93DCFA2B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Requirements Planning</t>
   </si>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -127,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -151,6 +164,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -158,11 +195,84 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -174,38 +284,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,14 +328,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -229,105 +353,172 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,10 +533,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,48 +898,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="25" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="25" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="27"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
     </row>
     <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -904,48 +1159,48 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="25" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="25" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="25" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="25" t="s">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="27"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="13">
         <v>1</v>
       </c>
@@ -1020,7 +1275,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="15"/>
@@ -1049,7 +1304,7 @@
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
@@ -1131,9 +1386,9 @@
       <c r="T14" s="15"/>
       <c r="U14" s="7"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="20"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -1164,8 +1419,282 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="12"/>
     </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="47"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37">
+        <v>2</v>
+      </c>
+      <c r="L18" s="37">
+        <v>3</v>
+      </c>
+      <c r="M18" s="38">
+        <v>4</v>
+      </c>
+      <c r="N18" s="37">
+        <v>1</v>
+      </c>
+      <c r="O18" s="37">
+        <v>2</v>
+      </c>
+      <c r="P18" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>4</v>
+      </c>
+      <c r="R18" s="37">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37">
+        <v>2</v>
+      </c>
+      <c r="T18" s="37">
+        <v>3</v>
+      </c>
+      <c r="U18" s="39">
+        <v>4</v>
+      </c>
+      <c r="V18" s="39">
+        <v>1</v>
+      </c>
+      <c r="W18" s="37">
+        <v>2</v>
+      </c>
+      <c r="X18" s="37">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="A1:A2"/>
